--- a/files/header_copy.xlsx
+++ b/files/header_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashwani\Desktop\API code updates\Latest Updated Code\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Latest Updated Code\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B559794-775D-414F-9A02-9C61B97D6E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB57AD0-787B-4584-B131-9FA9DADE8555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC092D8-5545-422D-8F09-CFD77EF05556}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFC092D8-5545-422D-8F09-CFD77EF05556}"/>
   </bookViews>
   <sheets>
     <sheet name="expressreport" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
     <t>Personality Suggestion</t>
   </si>
   <si>
-    <t>Sub-Story Genre</t>
+    <t>Sub-Story  Genre</t>
   </si>
 </sst>
 </file>
@@ -247,9 +247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -393,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91356EC8-DB82-420B-B528-5C83BA2ACD96}">
   <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
